--- a/biology/Médecine/Hépatomégalie/Hépatomégalie.xlsx
+++ b/biology/Médecine/Hépatomégalie/Hépatomégalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patom%C3%A9galie</t>
+          <t>Hépatomégalie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hépatomégalie (repérable à la palpation chez l'homme) est une hypertrophie du foie c'est-à-dire une augmentation du volume du foie, palpable sous le rebord costal droit. Il peut s'agir d'une augmentation de volume de l'organe en entier, d'un lobe en particulier ou d'un secteur plus circonscrit. Il s'agit d'un signe médical non spécifique dont les causes peuvent être multiples. Parmi ces causes, on peut citer entre autres une infection, des tumeurs hépatiques ou des troubles métaboliques. Selon la cause, une jaunisse peut parfois se manifester[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hépatomégalie (repérable à la palpation chez l'homme) est une hypertrophie du foie c'est-à-dire une augmentation du volume du foie, palpable sous le rebord costal droit. Il peut s'agir d'une augmentation de volume de l'organe en entier, d'un lobe en particulier ou d'un secteur plus circonscrit. Il s'agit d'un signe médical non spécifique dont les causes peuvent être multiples. Parmi ces causes, on peut citer entre autres une infection, des tumeurs hépatiques ou des troubles métaboliques. Selon la cause, une jaunisse peut parfois se manifester.
 La partie consommée du foie gras des canards et oies est la résultante d'une hépatomégalie.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patom%C3%A9galie</t>
+          <t>Hépatomégalie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes liés à l'hépatomégalie peuvent inclure une perte de poids, un manque d'appétit, une léthargie, une jaunisse et des ecchymoses[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes liés à l'hépatomégalie peuvent inclure une perte de poids, un manque d'appétit, une léthargie, une jaunisse et des ecchymoses.
 À la palpation, on caractérise l'hépatomégalie comme homogène ou hétérogène, dans ce dernier cas il s'agit alors de nodules hépatiques.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9patom%C3%A9galie</t>
+          <t>Hépatomégalie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic d'hépatomégalie se réalise de manière clinique par la palpation d'une masse de l'hypocondre droit et/ou de l'épigastre qui est mobile à la respiration.
 Elle s'évalue en nombre de diamètre de doigts entre le rebord inférieur des côtes et le rebord inférieur du foie. Au-delà de la hauteur d'une paume, l'hépatomégalie est importante. Elle est calculable par la flèche hépatique (somme de la longueur du débord hépatique sous-costal + matité sous-costale).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%A9patom%C3%A9galie</t>
+          <t>Hépatomégalie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
